--- a/เช็คชื่อ/[2021-09-05] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-09-05] เอกสารเช็คชื่อ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11487C5-4494-467E-8D69-80AFECA5AB28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC58AC5-78FF-46AA-86CA-294554B1D936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="36">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E569" sqref="E569"/>
+    <sheetView tabSelected="1" topLeftCell="A552" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F562" sqref="F562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8156,6 +8156,9 @@
         <v>7</v>
       </c>
       <c r="C561" s="2"/>
+      <c r="D561" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="E561" s="9"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -8180,6 +8183,9 @@
         <v>8</v>
       </c>
       <c r="C563" s="2"/>
+      <c r="D563" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="E563" s="9"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -8189,8 +8195,12 @@
       <c r="B564" t="s">
         <v>16</v>
       </c>
-      <c r="C564" s="2"/>
-      <c r="E564" s="9"/>
+      <c r="C564" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="E564" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565">
@@ -8214,8 +8224,12 @@
       <c r="B566" t="s">
         <v>10</v>
       </c>
-      <c r="C566" s="2"/>
-      <c r="E566" s="9"/>
+      <c r="C566" s="2">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="E566" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567">
@@ -8225,7 +8239,9 @@
         <v>11</v>
       </c>
       <c r="C567" s="2"/>
-      <c r="D567" s="10"/>
+      <c r="D567" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="E567" s="9"/>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -8235,8 +8251,12 @@
       <c r="B568" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C568" s="2"/>
-      <c r="E568" s="9"/>
+      <c r="C568" s="2">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="E568" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569">
@@ -8259,9 +8279,13 @@
       <c r="B570" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C570" s="2"/>
+      <c r="C570" s="2">
+        <v>0.78263888888888899</v>
+      </c>
       <c r="D570" s="9"/>
-      <c r="E570" s="9"/>
+      <c r="E570" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
